--- a/UI DIAGRAM & DATABASE SCHEMA/Database_Schema/BookMyMaidDatabase.xlsx
+++ b/UI DIAGRAM & DATABASE SCHEMA/Database_Schema/BookMyMaidDatabase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOMAL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IET\IET PROJECT\PROJECT WORK\BookMyMaid\UI DIAGRAM &amp; DATABASE SCHEMA\Database_Schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE2A4E7-EDA7-4F15-BF4A-89CCA44CF5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3A1FD1-FF3A-4F7B-99E9-60DE45B9FE01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="67">
   <si>
     <t>user_username</t>
   </si>
@@ -204,6 +204,24 @@
   </si>
   <si>
     <t>longblob,can be null</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> services_id (fk)</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>maid_booking_date</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>maid_id (fk)</t>
+  </si>
+  <si>
+    <t>services_id (fk)</t>
   </si>
 </sst>
 </file>
@@ -586,6 +604,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -594,12 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -943,28 +961,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="44" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
     <col min="6" max="6" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="50.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="31.33203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="7.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.85546875" style="1"/>
+    <col min="14" max="14" width="31.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="28" t="s">
         <v>50</v>
       </c>
@@ -975,7 +993,7 @@
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="2:8" ht="56.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -984,8 +1002,8 @@
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="2:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -999,7 +1017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
         <v>46</v>
       </c>
@@ -1013,7 +1031,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
         <v>13</v>
       </c>
@@ -1024,10 +1042,10 @@
         <v>35</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="23" t="s">
         <v>14</v>
       </c>
@@ -1038,10 +1056,10 @@
         <v>36</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>10</v>
       </c>
@@ -1049,10 +1067,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23" t="s">
         <v>15</v>
       </c>
@@ -1060,10 +1078,10 @@
         <v>31</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>16</v>
       </c>
@@ -1074,7 +1092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="23" t="s">
         <v>11</v>
       </c>
@@ -1085,7 +1103,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="23" t="s">
         <v>17</v>
       </c>
@@ -1096,10 +1114,10 @@
         <v>7</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="23" t="s">
         <v>18</v>
       </c>
@@ -1109,9 +1127,11 @@
       <c r="F15" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="23" t="s">
         <v>12</v>
       </c>
@@ -1121,8 +1141,11 @@
       <c r="F16" s="26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="23" t="s">
         <v>19</v>
       </c>
@@ -1132,8 +1155,11 @@
       <c r="F17" s="26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
         <v>20</v>
       </c>
@@ -1144,7 +1170,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="23" t="s">
         <v>21</v>
       </c>
@@ -1155,7 +1181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="23" t="s">
         <v>22</v>
       </c>
@@ -1163,20 +1189,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
     </row>
   </sheetData>
@@ -1192,22 +1220,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
     <col min="5" max="6" width="28" customWidth="1"/>
-    <col min="8" max="9" width="26.21875" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" customWidth="1"/>
-    <col min="12" max="12" width="20.77734375" customWidth="1"/>
+    <col min="8" max="9" width="26.28515625" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="6"/>
       <c r="D1" s="1"/>
@@ -1220,35 +1248,35 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-    </row>
-    <row r="3" spans="2:12" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-    </row>
-    <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+    </row>
+    <row r="3" spans="2:12" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="6"/>
       <c r="D4" s="1"/>
@@ -1261,28 +1289,28 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="25.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="30" t="s">
+    <row r="5" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="33"/>
-    </row>
-    <row r="6" spans="2:12" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" spans="2:12" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>46</v>
       </c>
@@ -1311,7 +1339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
@@ -1340,7 +1368,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1369,7 +1397,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
@@ -1394,7 +1422,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -1419,7 +1447,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -1444,7 +1472,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
@@ -1469,7 +1497,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="25.2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
@@ -1484,10 +1512,10 @@
         <v>52</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="33"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="1"/>
       <c r="K13" s="11" t="s">
         <v>41</v>
@@ -1496,7 +1524,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="36" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
@@ -1521,7 +1549,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
@@ -1546,7 +1574,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
@@ -1571,7 +1599,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
@@ -1596,7 +1624,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
@@ -1621,7 +1649,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
@@ -1642,7 +1670,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
@@ -1659,7 +1687,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="11" t="s">
         <v>24</v>
       </c>
@@ -1676,7 +1704,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="2:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="6"/>
       <c r="D22" s="1"/>
@@ -1689,7 +1717,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C23" s="6"/>
     </row>
   </sheetData>

--- a/UI DIAGRAM & DATABASE SCHEMA/Database_Schema/BookMyMaidDatabase.xlsx
+++ b/UI DIAGRAM & DATABASE SCHEMA/Database_Schema/BookMyMaidDatabase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IET\IET PROJECT\PROJECT WORK\BookMyMaid\UI DIAGRAM &amp; DATABASE SCHEMA\Database_Schema\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IET\IET PROJECT\FINAL PROJECT\BookMyMaid\UI DIAGRAM &amp; DATABASE SCHEMA\Database_Schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3A1FD1-FF3A-4F7B-99E9-60DE45B9FE01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FC60D4-BDB8-424D-B8AA-8477C02F4CE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
   <si>
     <t>user_username</t>
   </si>
@@ -318,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -542,13 +542,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -619,6 +632,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -959,9 +973,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:H24"/>
+  <dimension ref="B3:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1067,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1078,7 +1092,7 @@
         <v>31</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1089,7 +1103,7 @@
         <v>32</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1099,8 +1113,8 @@
       <c r="D13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="23" t="s">
-        <v>40</v>
+      <c r="H13" s="34" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1113,11 +1127,11 @@
       <c r="F14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="23" t="s">
         <v>18</v>
       </c>
@@ -1127,8 +1141,8 @@
       <c r="F15" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="24" t="s">
-        <v>65</v>
+      <c r="H15" s="34" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1142,10 +1156,10 @@
         <v>48</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="23" t="s">
         <v>19</v>
       </c>
@@ -1155,11 +1169,8 @@
       <c r="F17" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
         <v>20</v>
       </c>
@@ -1170,9 +1181,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="23" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>29</v>
@@ -1181,31 +1192,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="24" t="s">
+    <row r="21" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
+    <row r="22" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
